--- a/Epsitec.Cresus/App.Aider/Samples/EERV Morges/Groupes.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Morges/Groupes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="0" windowWidth="24840" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="7185" yWindow="0" windowWidth="24840" windowHeight="16665" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Groupes.slk" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="602">
   <si>
     <t>Administration - Bureau AP</t>
   </si>
@@ -1816,6 +1816,15 @@
   </si>
   <si>
     <t>0403010201</t>
+  </si>
+  <si>
+    <t>IdxG</t>
+  </si>
+  <si>
+    <t>DesG</t>
+  </si>
+  <si>
+    <t>IdxGD</t>
   </si>
 </sst>
 </file>
@@ -1868,6 +1877,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2193,56 +2207,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="14.625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>4030000007</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>4030000008</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4030000001</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>4030000014</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4030000015</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>4030000001</v>
@@ -2251,21 +2253,21 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4030000028</v>
+        <v>4030000014</v>
       </c>
       <c r="B3" s="1">
-        <v>4030000033</v>
+        <v>4030000015</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>4030000001</v>
@@ -2274,21 +2276,21 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>4030000028</v>
+      </c>
+      <c r="B4" s="1">
         <v>4030000033</v>
       </c>
-      <c r="B4" s="1">
-        <v>4030000053</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>4030000001</v>
@@ -2297,21 +2299,21 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4030000034</v>
+        <v>4030000033</v>
       </c>
       <c r="B5" s="1">
-        <v>4030000054</v>
+        <v>4030000053</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>4030000001</v>
@@ -2320,21 +2322,21 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4030000036</v>
+        <v>4030000034</v>
       </c>
       <c r="B6" s="1">
-        <v>4030000061</v>
+        <v>4030000054</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>4030000001</v>
@@ -2343,21 +2345,21 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4030000037</v>
+        <v>4030000036</v>
       </c>
       <c r="B7" s="1">
-        <v>4030000062</v>
+        <v>4030000061</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>4030000001</v>
@@ -2366,21 +2368,21 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4030000038</v>
+        <v>4030000037</v>
       </c>
       <c r="B8" s="1">
-        <v>4030000063</v>
+        <v>4030000062</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>4030000001</v>
@@ -2389,21 +2391,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4030000039</v>
+        <v>4030000038</v>
       </c>
       <c r="B9" s="1">
-        <v>4030000067</v>
+        <v>4030000063</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>4030000001</v>
@@ -2412,21 +2414,21 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4030000040</v>
+        <v>4030000039</v>
       </c>
       <c r="B10" s="1">
-        <v>4030000069</v>
+        <v>4030000067</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
         <v>4030000001</v>
@@ -2435,21 +2437,21 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4030000041</v>
+        <v>4030000040</v>
       </c>
       <c r="B11" s="1">
-        <v>4030000070</v>
+        <v>4030000069</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <v>4030000001</v>
@@ -2458,21 +2460,21 @@
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4030000043</v>
+        <v>4030000041</v>
       </c>
       <c r="B12" s="1">
-        <v>4030000073</v>
+        <v>4030000070</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1">
         <v>4030000001</v>
@@ -2481,21 +2483,21 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4030000044</v>
+        <v>4030000043</v>
       </c>
       <c r="B13" s="1">
-        <v>4030000074</v>
+        <v>4030000073</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1">
         <v>4030000001</v>
@@ -2504,21 +2506,21 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>4030000049</v>
+        <v>4030000044</v>
       </c>
       <c r="B14" s="1">
-        <v>4030000083</v>
+        <v>4030000074</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1">
         <v>4030000001</v>
@@ -2527,21 +2529,21 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>4030000064</v>
+        <v>4030000049</v>
       </c>
       <c r="B15" s="1">
-        <v>4030000098</v>
+        <v>4030000083</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>4030000001</v>
@@ -2550,21 +2552,21 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>4030000065</v>
+        <v>4030000064</v>
       </c>
       <c r="B16" s="1">
-        <v>4030000099</v>
+        <v>4030000098</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1">
         <v>4030000001</v>
@@ -2573,21 +2575,21 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>4030000069</v>
+        <v>4030000065</v>
       </c>
       <c r="B17" s="1">
-        <v>4030000103</v>
+        <v>4030000099</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1">
         <v>4030000001</v>
@@ -2596,21 +2598,21 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>4030000072</v>
+        <v>4030000069</v>
       </c>
       <c r="B18" s="1">
-        <v>4030000112</v>
+        <v>4030000103</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1">
         <v>4030000001</v>
@@ -2619,21 +2621,21 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>4030000073</v>
+        <v>4030000072</v>
       </c>
       <c r="B19" s="1">
-        <v>4030000113</v>
+        <v>4030000112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1">
         <v>4030000001</v>
@@ -2642,21 +2644,21 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>4030000074</v>
+        <v>4030000073</v>
       </c>
       <c r="B20" s="1">
-        <v>4030000114</v>
+        <v>4030000113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1">
         <v>4030000001</v>
@@ -2665,21 +2667,21 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4030000078</v>
+        <v>4030000074</v>
       </c>
       <c r="B21" s="1">
-        <v>4030000118</v>
+        <v>4030000114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1">
         <v>4030000001</v>
@@ -2688,21 +2690,21 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>4030000087</v>
+        <v>4030000078</v>
       </c>
       <c r="B22" s="1">
-        <v>4030000127</v>
+        <v>4030000118</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D22" s="1">
         <v>4030000001</v>
@@ -2711,21 +2713,21 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4030000088</v>
+        <v>4030000087</v>
       </c>
       <c r="B23" s="1">
-        <v>4030000128</v>
+        <v>4030000127</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1">
         <v>4030000001</v>
@@ -2734,21 +2736,21 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4030000090</v>
+        <v>4030000088</v>
       </c>
       <c r="B24" s="1">
-        <v>4030000130</v>
+        <v>4030000128</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1">
         <v>4030000001</v>
@@ -2757,21 +2759,21 @@
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>4030000094</v>
+        <v>4030000090</v>
       </c>
       <c r="B25" s="1">
-        <v>4030000134</v>
+        <v>4030000130</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1">
         <v>4030000001</v>
@@ -2780,21 +2782,21 @@
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>4030000098</v>
+        <v>4030000094</v>
       </c>
       <c r="B26" s="1">
-        <v>4030000138</v>
+        <v>4030000134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1">
         <v>4030000001</v>
@@ -2803,21 +2805,21 @@
         <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>4030000099</v>
+        <v>4030000098</v>
       </c>
       <c r="B27" s="1">
-        <v>4030000139</v>
+        <v>4030000138</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="1">
         <v>4030000001</v>
@@ -2826,21 +2828,21 @@
         <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>4030000100</v>
+        <v>4030000099</v>
       </c>
       <c r="B28" s="1">
-        <v>4030000140</v>
+        <v>4030000139</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1">
         <v>4030000001</v>
@@ -2849,21 +2851,21 @@
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>4030000101</v>
+        <v>4030000100</v>
       </c>
       <c r="B29" s="1">
-        <v>4030000141</v>
+        <v>4030000140</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="1">
         <v>4030000001</v>
@@ -2872,21 +2874,21 @@
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>4030000262</v>
+        <v>4030000101</v>
       </c>
       <c r="B30" s="1">
-        <v>4030000154</v>
+        <v>4030000141</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1">
         <v>4030000001</v>
@@ -2895,21 +2897,21 @@
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>4030000298</v>
+        <v>4030000262</v>
       </c>
       <c r="B31" s="1">
-        <v>4030000187</v>
+        <v>4030000154</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D31" s="1">
         <v>4030000001</v>
@@ -2918,70 +2920,70 @@
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>4030000298</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4030000187</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4030000001</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>4030000259</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>100000000565</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>4030000001.0999999</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>4030000109</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>4030000045</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4030000002</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1">
-        <v>4030000127</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4030000046</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D34" s="1">
         <v>4030000002</v>
@@ -2990,21 +2992,21 @@
         <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>222</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>4030000107</v>
+        <v>4030000127</v>
       </c>
       <c r="B35" s="1">
-        <v>4030000049</v>
+        <v>4030000046</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1">
         <v>4030000002</v>
@@ -3013,21 +3015,21 @@
         <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>4030000132</v>
+        <v>4030000107</v>
       </c>
       <c r="B36" s="1">
-        <v>4030000050</v>
+        <v>4030000049</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1">
         <v>4030000002</v>
@@ -3036,21 +3038,21 @@
         <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>224</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4030000110</v>
+        <v>4030000132</v>
       </c>
       <c r="B37" s="1">
-        <v>4030000051</v>
+        <v>4030000050</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1">
         <v>4030000002</v>
@@ -3059,21 +3061,21 @@
         <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>225</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>4030000102</v>
+        <v>4030000110</v>
       </c>
       <c r="B38" s="1">
-        <v>4030000052</v>
+        <v>4030000051</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1">
         <v>4030000002</v>
@@ -3082,21 +3084,21 @@
         <v>30</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>226</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>4030000336</v>
+        <v>4030000102</v>
       </c>
       <c r="B39" s="1">
-        <v>4030000054</v>
+        <v>4030000052</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1">
         <v>4030000002</v>
@@ -3105,21 +3107,21 @@
         <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>227</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>4030000125</v>
+        <v>4030000336</v>
       </c>
       <c r="B40" s="1">
-        <v>4030000055</v>
+        <v>4030000054</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1">
         <v>4030000002</v>
@@ -3128,21 +3130,21 @@
         <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>228</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>4030000254</v>
+        <v>4030000125</v>
       </c>
       <c r="B41" s="1">
-        <v>4030000056</v>
+        <v>4030000055</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1">
         <v>4030000002</v>
@@ -3151,21 +3153,21 @@
         <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>229</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>4030000126</v>
+        <v>4030000254</v>
       </c>
       <c r="B42" s="1">
-        <v>4030000057</v>
+        <v>4030000056</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1">
         <v>4030000002</v>
@@ -3174,21 +3176,21 @@
         <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>230</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>4030000105</v>
+        <v>4030000126</v>
       </c>
       <c r="B43" s="1">
-        <v>4030000058</v>
+        <v>4030000057</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="1">
         <v>4030000002</v>
@@ -3197,21 +3199,21 @@
         <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>231</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>4030000106</v>
+        <v>4030000105</v>
       </c>
       <c r="B44" s="1">
-        <v>4030000064</v>
+        <v>4030000058</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1">
         <v>4030000002</v>
@@ -3220,21 +3222,21 @@
         <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>232</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>4030000128</v>
+        <v>4030000106</v>
       </c>
       <c r="B45" s="1">
-        <v>4030000065</v>
+        <v>4030000064</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="1">
         <v>4030000002</v>
@@ -3243,21 +3245,21 @@
         <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>233</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>4030000291</v>
+        <v>4030000128</v>
       </c>
       <c r="B46" s="1">
-        <v>4030000181</v>
+        <v>4030000065</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1">
         <v>4030000002</v>
@@ -3266,21 +3268,21 @@
         <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>234</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>4030000292</v>
+        <v>4030000291</v>
       </c>
       <c r="B47" s="1">
-        <v>4030000182</v>
+        <v>4030000181</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="1">
         <v>4030000002</v>
@@ -3289,21 +3291,21 @@
         <v>30</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>235</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>4030000300</v>
+        <v>4030000292</v>
       </c>
       <c r="B48" s="1">
-        <v>4030000189</v>
+        <v>4030000182</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D48" s="1">
         <v>4030000002</v>
@@ -3312,21 +3314,21 @@
         <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4030000326</v>
+        <v>4030000300</v>
       </c>
       <c r="B49" s="1">
-        <v>4030000208</v>
+        <v>4030000189</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D49" s="1">
         <v>4030000002</v>
@@ -3335,21 +3337,21 @@
         <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>4030000327</v>
+        <v>4030000326</v>
       </c>
       <c r="B50" s="1">
-        <v>4030000209</v>
+        <v>4030000208</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="1">
         <v>4030000002</v>
@@ -3358,44 +3360,44 @@
         <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>4030000327</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4030000209</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4030000002</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>4030000111</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>4030000142</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4030000003</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1">
-        <v>4030000112</v>
-      </c>
-      <c r="B52" s="1">
-        <v>4030000143</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D52" s="1">
         <v>4030000003</v>
@@ -3407,18 +3409,18 @@
         <v>221</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>4030000113</v>
+        <v>4030000112</v>
       </c>
       <c r="B53" s="1">
-        <v>4030000144</v>
+        <v>4030000143</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" s="1">
         <v>4030000003</v>
@@ -3433,15 +3435,15 @@
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>4030000115</v>
+        <v>4030000113</v>
       </c>
       <c r="B54" s="1">
-        <v>4030000146</v>
+        <v>4030000144</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" s="1">
         <v>4030000003</v>
@@ -3456,15 +3458,15 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>4030000148</v>
+        <v>4030000115</v>
       </c>
       <c r="B55" s="1">
-        <v>4030000149</v>
+        <v>4030000146</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D55" s="1">
         <v>4030000003</v>
@@ -3479,38 +3481,38 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
+        <v>4030000148</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4030000149</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4030000003</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>4030000116</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B57" s="1">
         <v>4030000034</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D56" s="1">
-        <v>4030000005</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="1">
-        <v>4030000117</v>
-      </c>
-      <c r="B57" s="1">
-        <v>4030000035</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D57" s="1">
         <v>4030000005</v>
@@ -3519,21 +3521,21 @@
         <v>21</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>4030000118</v>
+        <v>4030000117</v>
       </c>
       <c r="B58" s="1">
-        <v>4030000036</v>
+        <v>4030000035</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D58" s="1">
         <v>4030000005</v>
@@ -3542,21 +3544,21 @@
         <v>21</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>4030000119</v>
+        <v>4030000118</v>
       </c>
       <c r="B59" s="1">
-        <v>4030000037</v>
+        <v>4030000036</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" s="1">
         <v>4030000005</v>
@@ -3565,21 +3567,21 @@
         <v>21</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>4030000121</v>
+        <v>4030000119</v>
       </c>
       <c r="B60" s="1">
-        <v>4030000038</v>
+        <v>4030000037</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" s="1">
         <v>4030000005</v>
@@ -3588,21 +3590,21 @@
         <v>21</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>4030000133</v>
+        <v>4030000121</v>
       </c>
       <c r="B61" s="1">
-        <v>4030000039</v>
+        <v>4030000038</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1">
         <v>4030000005</v>
@@ -3611,21 +3613,21 @@
         <v>21</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>4030000120</v>
+        <v>4030000133</v>
       </c>
       <c r="B62" s="1">
-        <v>4030000042</v>
+        <v>4030000039</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="1">
         <v>4030000005</v>
@@ -3634,21 +3636,21 @@
         <v>21</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>4030000219</v>
+        <v>4030000120</v>
       </c>
       <c r="B63" s="1">
-        <v>4030000043</v>
+        <v>4030000042</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="1">
         <v>4030000005</v>
@@ -3657,21 +3659,21 @@
         <v>21</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>4030000134</v>
+        <v>4030000219</v>
       </c>
       <c r="B64" s="1">
-        <v>4030000147</v>
+        <v>4030000043</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="D64" s="1">
         <v>4030000005</v>
@@ -3680,21 +3682,21 @@
         <v>21</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>4030000149</v>
+        <v>4030000134</v>
       </c>
       <c r="B65" s="1">
-        <v>4030000150</v>
+        <v>4030000147</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D65" s="1">
         <v>4030000005</v>
@@ -3703,21 +3705,21 @@
         <v>21</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
+        <v>4030000149</v>
+      </c>
+      <c r="B66" s="1">
         <v>4030000150</v>
       </c>
-      <c r="B66" s="1">
-        <v>4030000151</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="1">
         <v>4030000005</v>
@@ -3726,21 +3728,21 @@
         <v>21</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
+        <v>4030000150</v>
+      </c>
+      <c r="B67" s="1">
         <v>4030000151</v>
       </c>
-      <c r="B67" s="1">
-        <v>4030000152</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" s="1">
         <v>4030000005</v>
@@ -3749,21 +3751,21 @@
         <v>21</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
+        <v>4030000151</v>
+      </c>
+      <c r="B68" s="1">
         <v>4030000152</v>
       </c>
-      <c r="B68" s="1">
-        <v>4030000155</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D68" s="1">
         <v>4030000005</v>
@@ -3772,21 +3774,21 @@
         <v>21</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>4030000253</v>
+        <v>4030000152</v>
       </c>
       <c r="B69" s="1">
-        <v>4030000157</v>
+        <v>4030000155</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="1">
         <v>4030000005</v>
@@ -3795,21 +3797,21 @@
         <v>21</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>4030000155</v>
+        <v>4030000253</v>
       </c>
       <c r="B70" s="1">
-        <v>4030000158</v>
+        <v>4030000157</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70" s="1">
         <v>4030000005</v>
@@ -3818,21 +3820,21 @@
         <v>21</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>4030000313</v>
+        <v>4030000155</v>
       </c>
       <c r="B71" s="1">
-        <v>4030000185</v>
+        <v>4030000158</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D71" s="1">
         <v>4030000005</v>
@@ -3841,21 +3843,21 @@
         <v>21</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>4030000299</v>
+        <v>4030000313</v>
       </c>
       <c r="B72" s="1">
-        <v>4030000188</v>
+        <v>4030000185</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D72" s="1">
         <v>4030000005</v>
@@ -3864,21 +3866,21 @@
         <v>21</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>4030000317</v>
+        <v>4030000299</v>
       </c>
       <c r="B73" s="1">
-        <v>4030000201</v>
+        <v>4030000188</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D73" s="1">
         <v>4030000005</v>
@@ -3887,21 +3889,21 @@
         <v>21</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>4030000331</v>
+        <v>4030000317</v>
       </c>
       <c r="B74" s="1">
-        <v>4030000212</v>
+        <v>4030000201</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D74" s="1">
         <v>4030000005</v>
@@ -3910,21 +3912,21 @@
         <v>21</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>4030000341</v>
+        <v>4030000331</v>
       </c>
       <c r="B75" s="1">
-        <v>4030000218</v>
+        <v>4030000212</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D75" s="1">
         <v>4030000005</v>
@@ -3933,21 +3935,21 @@
         <v>21</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>4030000353</v>
+        <v>4030000341</v>
       </c>
       <c r="B76" s="1">
-        <v>4030000228</v>
+        <v>4030000218</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D76" s="1">
         <v>4030000005</v>
@@ -3956,21 +3958,21 @@
         <v>21</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>4030000356</v>
+        <v>4030000353</v>
       </c>
       <c r="B77" s="1">
-        <v>4030000231</v>
+        <v>4030000228</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D77" s="1">
         <v>4030000005</v>
@@ -3979,44 +3981,44 @@
         <v>21</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>4030000356</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4030000231</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4030000005</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="1">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>4030000135</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B79" s="1">
         <v>4030000066</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D78" s="1">
-        <v>4030000006</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="1">
-        <v>4030000227</v>
-      </c>
-      <c r="B79" s="1">
-        <v>4030000075</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D79" s="1">
         <v>4030000006</v>
@@ -4025,21 +4027,21 @@
         <v>48</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>4030000138</v>
+        <v>4030000227</v>
       </c>
       <c r="B80" s="1">
-        <v>4030000076</v>
+        <v>4030000075</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D80" s="1">
         <v>4030000006</v>
@@ -4048,21 +4050,21 @@
         <v>48</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>4030000139</v>
+        <v>4030000138</v>
       </c>
       <c r="B81" s="1">
-        <v>4030000077</v>
+        <v>4030000076</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D81" s="1">
         <v>4030000006</v>
@@ -4071,21 +4073,21 @@
         <v>48</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>4030000140</v>
+        <v>4030000139</v>
       </c>
       <c r="B82" s="1">
-        <v>4030000078</v>
+        <v>4030000077</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D82" s="1">
         <v>4030000006</v>
@@ -4094,21 +4096,21 @@
         <v>48</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>4030000361</v>
+        <v>4030000140</v>
       </c>
       <c r="B83" s="1">
-        <v>4030000080</v>
+        <v>4030000078</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D83" s="1">
         <v>4030000006</v>
@@ -4117,21 +4119,21 @@
         <v>48</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>4030000163</v>
+        <v>4030000361</v>
       </c>
       <c r="B84" s="1">
-        <v>4030000092</v>
+        <v>4030000080</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D84" s="1">
         <v>4030000006</v>
@@ -4140,21 +4142,21 @@
         <v>48</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>4030000156</v>
+        <v>4030000163</v>
       </c>
       <c r="B85" s="1">
-        <v>4030000159</v>
+        <v>4030000092</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="D85" s="1">
         <v>4030000006</v>
@@ -4163,21 +4165,21 @@
         <v>48</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>4030000164</v>
+        <v>4030000156</v>
       </c>
       <c r="B86" s="1">
-        <v>4030000161</v>
+        <v>4030000159</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D86" s="1">
         <v>4030000006</v>
@@ -4186,21 +4188,21 @@
         <v>48</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>4030000167</v>
+        <v>4030000164</v>
       </c>
       <c r="B87" s="1">
-        <v>4030000164</v>
+        <v>4030000161</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D87" s="1">
         <v>4030000006</v>
@@ -4209,21 +4211,21 @@
         <v>48</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>4030000279</v>
+        <v>4030000167</v>
       </c>
       <c r="B88" s="1">
-        <v>4030000172</v>
+        <v>4030000164</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D88" s="1">
         <v>4030000006</v>
@@ -4232,21 +4234,21 @@
         <v>48</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>4030000369</v>
+        <v>4030000279</v>
       </c>
       <c r="B89" s="1">
-        <v>4030000199</v>
+        <v>4030000172</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D89" s="1">
         <v>4030000006</v>
@@ -4255,21 +4257,21 @@
         <v>48</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>4030000370</v>
+        <v>4030000369</v>
       </c>
       <c r="B90" s="1">
-        <v>4030000227</v>
+        <v>4030000199</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D90" s="1">
         <v>4030000006</v>
@@ -4278,44 +4280,44 @@
         <v>48</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>4030000370</v>
+      </c>
+      <c r="B91" s="1">
+        <v>4030000227</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" s="1">
+        <v>4030000006</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>4030000146</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B92" s="1">
         <v>4030000104</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D91" s="1">
-        <v>4030000007</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="1">
-        <v>4030000142</v>
-      </c>
-      <c r="B92" s="1">
-        <v>4030000107</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D92" s="1">
         <v>4030000007</v>
@@ -4324,21 +4326,21 @@
         <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>4030000143</v>
+        <v>4030000142</v>
       </c>
       <c r="B93" s="1">
-        <v>4030000108</v>
+        <v>4030000107</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D93" s="1">
         <v>4030000007</v>
@@ -4347,21 +4349,21 @@
         <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>4030000145</v>
+        <v>4030000143</v>
       </c>
       <c r="B94" s="1">
-        <v>4030000109</v>
+        <v>4030000108</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D94" s="1">
         <v>4030000007</v>
@@ -4370,21 +4372,21 @@
         <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>4030000144</v>
+        <v>4030000145</v>
       </c>
       <c r="B95" s="1">
-        <v>4030000110</v>
+        <v>4030000109</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D95" s="1">
         <v>4030000007</v>
@@ -4393,21 +4395,21 @@
         <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>4030000141</v>
+        <v>4030000144</v>
       </c>
       <c r="B96" s="1">
-        <v>4030000111</v>
+        <v>4030000110</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D96" s="1">
         <v>4030000007</v>
@@ -4416,21 +4418,21 @@
         <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>4030000147</v>
+        <v>4030000141</v>
       </c>
       <c r="B97" s="1">
-        <v>4030000148</v>
+        <v>4030000111</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D97" s="1">
         <v>4030000007</v>
@@ -4439,21 +4441,21 @@
         <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>4030000305</v>
+        <v>4030000147</v>
       </c>
       <c r="B98" s="1">
-        <v>4030000194</v>
+        <v>4030000148</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="D98" s="1">
         <v>4030000007</v>
@@ -4462,21 +4464,21 @@
         <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>4030000321</v>
+        <v>4030000305</v>
       </c>
       <c r="B99" s="1">
-        <v>4030000205</v>
+        <v>4030000194</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D99" s="1">
         <v>4030000007</v>
@@ -4485,21 +4487,21 @@
         <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>4030000334</v>
+        <v>4030000321</v>
       </c>
       <c r="B100" s="1">
-        <v>4030000215</v>
+        <v>4030000205</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D100" s="1">
         <v>4030000007</v>
@@ -4508,21 +4510,21 @@
         <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>4030000350</v>
+        <v>4030000334</v>
       </c>
       <c r="B101" s="1">
-        <v>4030000226</v>
+        <v>4030000215</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D101" s="1">
         <v>4030000007</v>
@@ -4531,44 +4533,44 @@
         <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>4030000350</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4030000226</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="1">
+        <v>4030000007</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="1">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>4030000372</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B103" s="1">
         <v>4030000008</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D102" s="1">
-        <v>4030000008</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="1">
-        <v>4030000323</v>
-      </c>
-      <c r="B103" s="1">
-        <v>4030000015</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D103" s="1">
         <v>4030000008</v>
@@ -4577,21 +4579,21 @@
         <v>7</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>4030000322</v>
+        <v>4030000323</v>
       </c>
       <c r="B104" s="1">
-        <v>4030000029</v>
+        <v>4030000015</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1">
         <v>4030000008</v>
@@ -4600,21 +4602,21 @@
         <v>7</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>4030000340</v>
+        <v>4030000322</v>
       </c>
       <c r="B105" s="1">
-        <v>4030000031</v>
+        <v>4030000029</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D105" s="1">
         <v>4030000008</v>
@@ -4623,21 +4625,21 @@
         <v>7</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>4030000162</v>
+        <v>4030000340</v>
       </c>
       <c r="B106" s="1">
-        <v>4030000082</v>
+        <v>4030000031</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D106" s="1">
         <v>4030000008</v>
@@ -4646,21 +4648,21 @@
         <v>7</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>4030000366</v>
+        <v>4030000162</v>
       </c>
       <c r="B107" s="1">
-        <v>4030000119</v>
+        <v>4030000082</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D107" s="1">
         <v>4030000008</v>
@@ -4669,21 +4671,21 @@
         <v>7</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>4030000362</v>
+        <v>4030000366</v>
       </c>
       <c r="B108" s="1">
-        <v>4030000123</v>
+        <v>4030000119</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D108" s="1">
         <v>4030000008</v>
@@ -4692,21 +4694,21 @@
         <v>7</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>4030000157</v>
+        <v>4030000362</v>
       </c>
       <c r="B109" s="1">
-        <v>4030000160</v>
+        <v>4030000123</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D109" s="1">
         <v>4030000008</v>
@@ -4715,21 +4717,21 @@
         <v>7</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>4030000286</v>
+        <v>4030000157</v>
       </c>
       <c r="B110" s="1">
-        <v>4030000176</v>
+        <v>4030000160</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D110" s="1">
         <v>4030000008</v>
@@ -4738,21 +4740,21 @@
         <v>7</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>4030000287</v>
+        <v>4030000286</v>
       </c>
       <c r="B111" s="1">
-        <v>4030000177</v>
+        <v>4030000176</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D111" s="1">
         <v>4030000008</v>
@@ -4761,21 +4763,21 @@
         <v>7</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>4030000288</v>
+        <v>4030000287</v>
       </c>
       <c r="B112" s="1">
-        <v>4030000178</v>
+        <v>4030000177</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D112" s="1">
         <v>4030000008</v>
@@ -4784,21 +4786,21 @@
         <v>7</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>4030000290</v>
+        <v>4030000288</v>
       </c>
       <c r="B113" s="1">
-        <v>4030000180</v>
+        <v>4030000178</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D113" s="1">
         <v>4030000008</v>
@@ -4807,21 +4809,21 @@
         <v>7</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>4030000293</v>
+        <v>4030000290</v>
       </c>
       <c r="B114" s="1">
-        <v>4030000183</v>
+        <v>4030000180</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D114" s="1">
         <v>4030000008</v>
@@ -4830,21 +4832,21 @@
         <v>7</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>4030000302</v>
+        <v>4030000293</v>
       </c>
       <c r="B115" s="1">
-        <v>4030000191</v>
+        <v>4030000183</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D115" s="1">
         <v>4030000008</v>
@@ -4853,21 +4855,21 @@
         <v>7</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>4030000316</v>
+        <v>4030000302</v>
       </c>
       <c r="B116" s="1">
-        <v>4030000200</v>
+        <v>4030000191</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D116" s="1">
         <v>4030000008</v>
@@ -4876,21 +4878,21 @@
         <v>7</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>4030000318</v>
+        <v>4030000316</v>
       </c>
       <c r="B117" s="1">
-        <v>4030000202</v>
+        <v>4030000200</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D117" s="1">
         <v>4030000008</v>
@@ -4899,21 +4901,21 @@
         <v>7</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>4030000319</v>
+        <v>4030000318</v>
       </c>
       <c r="B118" s="1">
-        <v>4030000203</v>
+        <v>4030000202</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D118" s="1">
         <v>4030000008</v>
@@ -4922,21 +4924,21 @@
         <v>7</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>4030000324</v>
+        <v>4030000319</v>
       </c>
       <c r="B119" s="1">
-        <v>4030000206</v>
+        <v>4030000203</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D119" s="1">
         <v>4030000008</v>
@@ -4945,21 +4947,21 @@
         <v>7</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>4030000328</v>
+        <v>4030000324</v>
       </c>
       <c r="B120" s="1">
-        <v>4030000210</v>
+        <v>4030000206</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D120" s="1">
         <v>4030000008</v>
@@ -4968,21 +4970,21 @@
         <v>7</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>4030000337</v>
+        <v>4030000328</v>
       </c>
       <c r="B121" s="1">
-        <v>4030000216</v>
+        <v>4030000210</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D121" s="1">
         <v>4030000008</v>
@@ -4991,21 +4993,21 @@
         <v>7</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>4030000342</v>
+        <v>4030000337</v>
       </c>
       <c r="B122" s="1">
-        <v>4030000219</v>
+        <v>4030000216</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D122" s="1">
         <v>4030000008</v>
@@ -5014,21 +5016,21 @@
         <v>7</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>4030000345</v>
+        <v>4030000342</v>
       </c>
       <c r="B123" s="1">
-        <v>4030000222</v>
+        <v>4030000219</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D123" s="1">
         <v>4030000008</v>
@@ -5037,21 +5039,21 @@
         <v>7</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>4030000346</v>
+        <v>4030000345</v>
       </c>
       <c r="B124" s="1">
-        <v>4030000223</v>
+        <v>4030000222</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D124" s="1">
         <v>4030000008</v>
@@ -5060,21 +5062,21 @@
         <v>7</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>4030000349</v>
+        <v>4030000346</v>
       </c>
       <c r="B125" s="1">
-        <v>4030000225</v>
+        <v>4030000223</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D125" s="1">
         <v>4030000008</v>
@@ -5083,21 +5085,21 @@
         <v>7</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>4030000355</v>
+        <v>4030000349</v>
       </c>
       <c r="B126" s="1">
-        <v>4030000230</v>
+        <v>4030000225</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D126" s="1">
         <v>4030000008</v>
@@ -5106,21 +5108,21 @@
         <v>7</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>4030000357</v>
+        <v>4030000355</v>
       </c>
       <c r="B127" s="1">
-        <v>4030000232</v>
+        <v>4030000230</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D127" s="1">
         <v>4030000008</v>
@@ -5129,21 +5131,21 @@
         <v>7</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>4030000358</v>
+        <v>4030000357</v>
       </c>
       <c r="B128" s="1">
-        <v>4030000234</v>
+        <v>4030000232</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D128" s="1">
         <v>4030000008</v>
@@ -5152,21 +5154,21 @@
         <v>7</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>4030000359</v>
+        <v>4030000358</v>
       </c>
       <c r="B129" s="1">
-        <v>4030000235</v>
+        <v>4030000234</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D129" s="1">
         <v>4030000008</v>
@@ -5175,21 +5177,21 @@
         <v>7</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>4030000363</v>
+        <v>4030000359</v>
       </c>
       <c r="B130" s="1">
-        <v>4030000237</v>
+        <v>4030000235</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D130" s="1">
         <v>4030000008</v>
@@ -5198,21 +5200,21 @@
         <v>7</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>4030000365</v>
+        <v>4030000363</v>
       </c>
       <c r="B131" s="1">
-        <v>4030000239</v>
+        <v>4030000237</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D131" s="1">
         <v>4030000008</v>
@@ -5221,21 +5223,21 @@
         <v>7</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>4030000367</v>
+        <v>4030000365</v>
       </c>
       <c r="B132" s="1">
-        <v>4030000240</v>
+        <v>4030000239</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D132" s="1">
         <v>4030000008</v>
@@ -5244,21 +5246,21 @@
         <v>7</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>4030000368</v>
+        <v>4030000367</v>
       </c>
       <c r="B133" s="1">
-        <v>4030000241</v>
+        <v>4030000240</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D133" s="1">
         <v>4030000008</v>
@@ -5267,21 +5269,21 @@
         <v>7</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>4030000375</v>
+        <v>4030000368</v>
       </c>
       <c r="B134" s="1">
-        <v>4030000242</v>
+        <v>4030000241</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D134" s="1">
         <v>4030000008</v>
@@ -5290,44 +5292,44 @@
         <v>7</v>
       </c>
       <c r="F134" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>4030000375</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4030000242</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135" s="1">
+        <v>4030000008</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="1">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>4030000159</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B136" s="1">
         <v>4030000116</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D135" s="1">
-        <v>4030000009</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="1">
-        <v>4030000168</v>
-      </c>
-      <c r="B136" s="1">
-        <v>4030000117</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D136" s="1">
         <v>4030000009</v>
@@ -5336,21 +5338,21 @@
         <v>90</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>4030000160</v>
+        <v>4030000168</v>
       </c>
       <c r="B137" s="1">
-        <v>4030000118</v>
+        <v>4030000117</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D137" s="1">
         <v>4030000009</v>
@@ -5359,21 +5361,21 @@
         <v>90</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>4030000170</v>
+        <v>4030000160</v>
       </c>
       <c r="B138" s="1">
-        <v>4030000120</v>
+        <v>4030000118</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D138" s="1">
         <v>4030000009</v>
@@ -5382,21 +5384,21 @@
         <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>4030000171</v>
+        <v>4030000170</v>
       </c>
       <c r="B139" s="1">
-        <v>4030000121</v>
+        <v>4030000120</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D139" s="1">
         <v>4030000009</v>
@@ -5405,21 +5407,21 @@
         <v>90</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>4030000172</v>
+        <v>4030000171</v>
       </c>
       <c r="B140" s="1">
-        <v>4030000122</v>
+        <v>4030000121</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D140" s="1">
         <v>4030000009</v>
@@ -5428,21 +5430,21 @@
         <v>90</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>4030000161</v>
+        <v>4030000172</v>
       </c>
       <c r="B141" s="1">
-        <v>4030000124</v>
+        <v>4030000122</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D141" s="1">
         <v>4030000009</v>
@@ -5451,21 +5453,21 @@
         <v>90</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>4030000269</v>
+        <v>4030000161</v>
       </c>
       <c r="B142" s="1">
-        <v>4030000168</v>
+        <v>4030000124</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="D142" s="1">
         <v>4030000009</v>
@@ -5474,21 +5476,21 @@
         <v>90</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>4030000271</v>
+        <v>4030000269</v>
       </c>
       <c r="B143" s="1">
-        <v>4030000169</v>
+        <v>4030000168</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D143" s="1">
         <v>4030000009</v>
@@ -5497,21 +5499,21 @@
         <v>90</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>4030000351</v>
+        <v>4030000271</v>
       </c>
       <c r="B144" s="1">
-        <v>4030000171</v>
+        <v>4030000169</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D144" s="1">
         <v>4030000009</v>
@@ -5520,44 +5522,44 @@
         <v>90</v>
       </c>
       <c r="F144" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>4030000351</v>
+      </c>
+      <c r="B145" s="1">
+        <v>4030000171</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" s="1">
+        <v>4030000009</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="G145" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="1">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>4030000187</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B146" s="1">
         <v>4030000013</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D145" s="1">
-        <v>4030000011</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1">
-        <v>4030000192</v>
-      </c>
-      <c r="B146" s="1">
-        <v>4030000014</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D146" s="1">
         <v>4030000011</v>
@@ -5565,22 +5567,22 @@
       <c r="E146" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="F146" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>4030000188</v>
+        <v>4030000192</v>
       </c>
       <c r="B147" s="1">
-        <v>4030000016</v>
+        <v>4030000014</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D147" s="1">
         <v>4030000011</v>
@@ -5589,21 +5591,21 @@
         <v>9</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>4030000174</v>
+        <v>4030000188</v>
       </c>
       <c r="B148" s="1">
-        <v>4030000086</v>
+        <v>4030000016</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D148" s="1">
         <v>4030000011</v>
@@ -5612,21 +5614,21 @@
         <v>9</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>4030000175</v>
+        <v>4030000174</v>
       </c>
       <c r="B149" s="1">
-        <v>4030000087</v>
+        <v>4030000086</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D149" s="1">
         <v>4030000011</v>
@@ -5635,21 +5637,21 @@
         <v>9</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>4030000176</v>
+        <v>4030000175</v>
       </c>
       <c r="B150" s="1">
-        <v>4030000088</v>
+        <v>4030000087</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D150" s="1">
         <v>4030000011</v>
@@ -5658,22 +5660,21 @@
         <v>9</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="I150" s="3"/>
-    </row>
-    <row r="151" spans="1:9">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>4030000177</v>
+        <v>4030000176</v>
       </c>
       <c r="B151" s="1">
-        <v>4030000090</v>
+        <v>4030000088</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D151" s="1">
         <v>4030000011</v>
@@ -5682,22 +5683,22 @@
         <v>9</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I151" s="3"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>4030000178</v>
+        <v>4030000177</v>
       </c>
       <c r="B152" s="1">
-        <v>4030000091</v>
+        <v>4030000090</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D152" s="1">
         <v>4030000011</v>
@@ -5705,22 +5706,23 @@
       <c r="E152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="F152" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>4030000180</v>
+        <v>4030000178</v>
       </c>
       <c r="B153" s="1">
-        <v>4030000094</v>
+        <v>4030000091</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D153" s="1">
         <v>4030000011</v>
@@ -5729,21 +5731,21 @@
         <v>9</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>4030000181</v>
+        <v>4030000180</v>
       </c>
       <c r="B154" s="1">
-        <v>4030000095</v>
+        <v>4030000094</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D154" s="1">
         <v>4030000011</v>
@@ -5752,21 +5754,21 @@
         <v>9</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>4030000182</v>
+        <v>4030000181</v>
       </c>
       <c r="B155" s="1">
-        <v>4030000096</v>
+        <v>4030000095</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D155" s="1">
         <v>4030000011</v>
@@ -5775,21 +5777,21 @@
         <v>9</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>4030000183</v>
+        <v>4030000182</v>
       </c>
       <c r="B156" s="1">
-        <v>4030000097</v>
+        <v>4030000096</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D156" s="1">
         <v>4030000011</v>
@@ -5797,22 +5799,22 @@
       <c r="E156" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="F156" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>4030000371</v>
+        <v>4030000183</v>
       </c>
       <c r="B157" s="1">
-        <v>4030000132</v>
+        <v>4030000097</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D157" s="1">
         <v>4030000011</v>
@@ -5821,21 +5823,21 @@
         <v>9</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>4030000264</v>
+        <v>4030000371</v>
       </c>
       <c r="B158" s="1">
-        <v>4030000165</v>
+        <v>4030000132</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D158" s="1">
         <v>4030000011</v>
@@ -5844,21 +5846,21 @@
         <v>9</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>4030000311</v>
+        <v>4030000264</v>
       </c>
       <c r="B159" s="1">
-        <v>4030000185</v>
+        <v>4030000165</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D159" s="1">
         <v>4030000011</v>
@@ -5867,21 +5869,21 @@
         <v>9</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>4030000309</v>
+        <v>4030000311</v>
       </c>
       <c r="B160" s="1">
-        <v>4030000197</v>
+        <v>4030000185</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D160" s="1">
         <v>4030000011</v>
@@ -5890,44 +5892,44 @@
         <v>9</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>4030000309</v>
+      </c>
+      <c r="B161" s="1">
+        <v>4030000197</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D161" s="1">
+        <v>4030000011</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="G161" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="1">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>4030000211</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B162" s="1">
         <v>4030000002</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D161" s="1">
-        <v>4030000012</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="1">
-        <v>4030000245</v>
-      </c>
-      <c r="B162" s="1">
-        <v>4030000003</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D162" s="1">
         <v>4030000012</v>
@@ -5936,21 +5938,21 @@
         <v>1</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>4030000228</v>
+        <v>4030000245</v>
       </c>
       <c r="B163" s="1">
-        <v>4030000004</v>
+        <v>4030000003</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D163" s="1">
         <v>4030000012</v>
@@ -5959,21 +5961,21 @@
         <v>1</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>4030000244</v>
+        <v>4030000228</v>
       </c>
       <c r="B164" s="1">
-        <v>4030000005</v>
+        <v>4030000004</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1">
         <v>4030000012</v>
@@ -5982,21 +5984,21 @@
         <v>1</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>4030000186</v>
+        <v>4030000244</v>
       </c>
       <c r="B165" s="1">
-        <v>4030000013</v>
+        <v>4030000005</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D165" s="1">
         <v>4030000012</v>
@@ -6005,21 +6007,21 @@
         <v>1</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>4030000193</v>
+        <v>4030000186</v>
       </c>
       <c r="B166" s="1">
-        <v>4030000014</v>
+        <v>4030000013</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D166" s="1">
         <v>4030000012</v>
@@ -6028,21 +6030,21 @@
         <v>1</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>4030000185</v>
+        <v>4030000193</v>
       </c>
       <c r="B167" s="1">
-        <v>4030000016</v>
+        <v>4030000014</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D167" s="1">
         <v>4030000012</v>
@@ -6051,21 +6053,21 @@
         <v>1</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>4030000229</v>
+        <v>4030000185</v>
       </c>
       <c r="B168" s="1">
-        <v>4030000018</v>
+        <v>4030000016</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D168" s="1">
         <v>4030000012</v>
@@ -6074,21 +6076,21 @@
         <v>1</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>4030000212</v>
+        <v>4030000229</v>
       </c>
       <c r="B169" s="1">
-        <v>4030000020</v>
+        <v>4030000018</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D169" s="1">
         <v>4030000012</v>
@@ -6097,21 +6099,21 @@
         <v>1</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>4030000231</v>
+        <v>4030000212</v>
       </c>
       <c r="B170" s="1">
-        <v>4030000021</v>
+        <v>4030000020</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D170" s="1">
         <v>4030000012</v>
@@ -6120,21 +6122,21 @@
         <v>1</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>4030000189</v>
+        <v>4030000231</v>
       </c>
       <c r="B171" s="1">
-        <v>4030000022</v>
+        <v>4030000021</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D171" s="1">
         <v>4030000012</v>
@@ -6143,21 +6145,21 @@
         <v>1</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>4030000216</v>
+        <v>4030000189</v>
       </c>
       <c r="B172" s="1">
-        <v>4030000039</v>
+        <v>4030000022</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D172" s="1">
         <v>4030000012</v>
@@ -6166,21 +6168,21 @@
         <v>1</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>4030000218</v>
+        <v>4030000216</v>
       </c>
       <c r="B173" s="1">
-        <v>4030000043</v>
+        <v>4030000039</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D173" s="1">
         <v>4030000012</v>
@@ -6189,21 +6191,21 @@
         <v>1</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>4030000257</v>
+        <v>4030000218</v>
       </c>
       <c r="B174" s="1">
-        <v>4030000056</v>
+        <v>4030000043</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D174" s="1">
         <v>4030000012</v>
@@ -6212,21 +6214,21 @@
         <v>1</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>4030000276</v>
+        <v>4030000257</v>
       </c>
       <c r="B175" s="1">
-        <v>4030000072</v>
+        <v>4030000056</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D175" s="1">
         <v>4030000012</v>
@@ -6235,21 +6237,21 @@
         <v>1</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>4030000196</v>
+        <v>4030000276</v>
       </c>
       <c r="B176" s="1">
-        <v>4030000086</v>
+        <v>4030000072</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D176" s="1">
         <v>4030000012</v>
@@ -6258,21 +6260,21 @@
         <v>1</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>4030000201</v>
+        <v>4030000196</v>
       </c>
       <c r="B177" s="1">
-        <v>4030000087</v>
+        <v>4030000086</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D177" s="1">
         <v>4030000012</v>
@@ -6281,21 +6283,21 @@
         <v>1</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>4030000194</v>
+        <v>4030000201</v>
       </c>
       <c r="B178" s="1">
-        <v>4030000088</v>
+        <v>4030000087</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D178" s="1">
         <v>4030000012</v>
@@ -6304,21 +6306,21 @@
         <v>1</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>4030000210</v>
+        <v>4030000194</v>
       </c>
       <c r="B179" s="1">
-        <v>4030000090</v>
+        <v>4030000088</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D179" s="1">
         <v>4030000012</v>
@@ -6327,21 +6329,21 @@
         <v>1</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>4030000199</v>
+        <v>4030000210</v>
       </c>
       <c r="B180" s="1">
-        <v>4030000091</v>
+        <v>4030000090</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D180" s="1">
         <v>4030000012</v>
@@ -6350,21 +6352,21 @@
         <v>1</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>4030000198</v>
+        <v>4030000199</v>
       </c>
       <c r="B181" s="1">
-        <v>4030000094</v>
+        <v>4030000091</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D181" s="1">
         <v>4030000012</v>
@@ -6373,21 +6375,21 @@
         <v>1</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>4030000191</v>
+        <v>4030000198</v>
       </c>
       <c r="B182" s="1">
-        <v>4030000095</v>
+        <v>4030000094</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D182" s="1">
         <v>4030000012</v>
@@ -6396,21 +6398,21 @@
         <v>1</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>4030000197</v>
+        <v>4030000191</v>
       </c>
       <c r="B183" s="1">
-        <v>4030000096</v>
+        <v>4030000095</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D183" s="1">
         <v>4030000012</v>
@@ -6419,21 +6421,21 @@
         <v>1</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>4030000195</v>
+        <v>4030000197</v>
       </c>
       <c r="B184" s="1">
-        <v>4030000097</v>
+        <v>4030000096</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D184" s="1">
         <v>4030000012</v>
@@ -6442,21 +6444,21 @@
         <v>1</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>4030000213</v>
+        <v>4030000195</v>
       </c>
       <c r="B185" s="1">
-        <v>4030000099</v>
+        <v>4030000097</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D185" s="1">
         <v>4030000012</v>
@@ -6465,21 +6467,21 @@
         <v>1</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>4030000209</v>
+        <v>4030000213</v>
       </c>
       <c r="B186" s="1">
-        <v>4030000100</v>
+        <v>4030000099</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D186" s="1">
         <v>4030000012</v>
@@ -6488,21 +6490,21 @@
         <v>1</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>4030000208</v>
+        <v>4030000209</v>
       </c>
       <c r="B187" s="1">
-        <v>4030000101</v>
+        <v>4030000100</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D187" s="1">
         <v>4030000012</v>
@@ -6511,21 +6513,21 @@
         <v>1</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>4030000205</v>
+        <v>4030000208</v>
       </c>
       <c r="B188" s="1">
-        <v>4030000104</v>
+        <v>4030000101</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D188" s="1">
         <v>4030000012</v>
@@ -6534,21 +6536,21 @@
         <v>1</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>4030000230</v>
+        <v>4030000205</v>
       </c>
       <c r="B189" s="1">
-        <v>4030000105</v>
+        <v>4030000104</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D189" s="1">
         <v>4030000012</v>
@@ -6557,21 +6559,21 @@
         <v>1</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>4030000207</v>
+        <v>4030000230</v>
       </c>
       <c r="B190" s="1">
-        <v>4030000106</v>
+        <v>4030000105</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D190" s="1">
         <v>4030000012</v>
@@ -6580,21 +6582,21 @@
         <v>1</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>4030000234</v>
+        <v>4030000207</v>
       </c>
       <c r="B191" s="1">
-        <v>4030000107</v>
+        <v>4030000106</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D191" s="1">
         <v>4030000012</v>
@@ -6603,21 +6605,21 @@
         <v>1</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>4030000236</v>
+        <v>4030000234</v>
       </c>
       <c r="B192" s="1">
-        <v>4030000111</v>
+        <v>4030000107</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D192" s="1">
         <v>4030000012</v>
@@ -6626,21 +6628,21 @@
         <v>1</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>4030000239</v>
+        <v>4030000236</v>
       </c>
       <c r="B193" s="1">
-        <v>4030000122</v>
+        <v>4030000111</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D193" s="1">
         <v>4030000012</v>
@@ -6649,21 +6651,21 @@
         <v>1</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>4030000243</v>
+        <v>4030000239</v>
       </c>
       <c r="B194" s="1">
-        <v>4030000125</v>
+        <v>4030000122</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D194" s="1">
         <v>4030000012</v>
@@ -6672,21 +6674,21 @@
         <v>1</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>4030000246</v>
+        <v>4030000243</v>
       </c>
       <c r="B195" s="1">
-        <v>4030000126</v>
+        <v>4030000125</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D195" s="1">
         <v>4030000012</v>
@@ -6695,21 +6697,21 @@
         <v>1</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>4030000240</v>
+        <v>4030000246</v>
       </c>
       <c r="B196" s="1">
-        <v>4030000128</v>
+        <v>4030000126</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D196" s="1">
         <v>4030000012</v>
@@ -6718,21 +6720,21 @@
         <v>1</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>4030000242</v>
+        <v>4030000240</v>
       </c>
       <c r="B197" s="1">
-        <v>4030000131</v>
+        <v>4030000128</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D197" s="1">
         <v>4030000012</v>
@@ -6741,21 +6743,21 @@
         <v>1</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>4030000241</v>
+        <v>4030000242</v>
       </c>
       <c r="B198" s="1">
-        <v>4030000132</v>
+        <v>4030000131</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D198" s="1">
         <v>4030000012</v>
@@ -6764,21 +6766,21 @@
         <v>1</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>4030000233</v>
+        <v>4030000241</v>
       </c>
       <c r="B199" s="1">
-        <v>4030000133</v>
+        <v>4030000132</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D199" s="1">
         <v>4030000012</v>
@@ -6787,21 +6789,21 @@
         <v>1</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>4030000232</v>
+        <v>4030000233</v>
       </c>
       <c r="B200" s="1">
-        <v>4030000135</v>
+        <v>4030000133</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D200" s="1">
         <v>4030000012</v>
@@ -6810,21 +6812,21 @@
         <v>1</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>4030000263</v>
+        <v>4030000232</v>
       </c>
       <c r="B201" s="1">
-        <v>4030000165</v>
+        <v>4030000135</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D201" s="1">
         <v>4030000012</v>
@@ -6833,21 +6835,21 @@
         <v>1</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>4030000275</v>
+        <v>4030000263</v>
       </c>
       <c r="B202" s="1">
-        <v>4030000171</v>
+        <v>4030000165</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D202" s="1">
         <v>4030000012</v>
@@ -6856,21 +6858,21 @@
         <v>1</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>4030000278</v>
+        <v>4030000275</v>
       </c>
       <c r="B203" s="1">
-        <v>4030000172</v>
+        <v>4030000171</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D203" s="1">
         <v>4030000012</v>
@@ -6879,21 +6881,21 @@
         <v>1</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>4030000312</v>
+        <v>4030000278</v>
       </c>
       <c r="B204" s="1">
-        <v>4030000185</v>
+        <v>4030000172</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D204" s="1">
         <v>4030000012</v>
@@ -6902,21 +6904,21 @@
         <v>1</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>4030000297</v>
+        <v>4030000312</v>
       </c>
       <c r="B205" s="1">
-        <v>4030000187</v>
+        <v>4030000185</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D205" s="1">
         <v>4030000012</v>
@@ -6925,21 +6927,21 @@
         <v>1</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>4030000310</v>
+        <v>4030000297</v>
       </c>
       <c r="B206" s="1">
-        <v>4030000197</v>
+        <v>4030000187</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D206" s="1">
         <v>4030000012</v>
@@ -6948,21 +6950,21 @@
         <v>1</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>4030000314</v>
+        <v>4030000310</v>
       </c>
       <c r="B207" s="1">
-        <v>4030000198</v>
+        <v>4030000197</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D207" s="1">
         <v>4030000012</v>
@@ -6971,55 +6973,78 @@
         <v>1</v>
       </c>
       <c r="F207" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>4030000314</v>
+      </c>
+      <c r="B208" s="1">
+        <v>4030000198</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D208" s="1">
+        <v>4030000012</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F208" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="G207" s="2" t="s">
+      <c r="G208" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="1">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>4030000307</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B209" s="1">
         <v>4030000196</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D209" s="1">
         <v>4030000013</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="F209" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="G208" s="3" t="s">
+      <c r="G209" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="1">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>4030000374</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B210" s="1">
         <v>4030000233</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D210" s="1">
         <v>4030000014</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="G209" s="3" t="s">
+      <c r="G210" s="3" t="s">
         <v>598</v>
       </c>
     </row>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Morges/Groupes.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Morges/Groupes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>IdxG</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Petites mains</t>
+  </si>
+  <si>
+    <t>IdxPar</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1017,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1358,18 +1364,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="41.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1379,8 +1386,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>403110100</v>
       </c>
@@ -1390,8 +1400,11 @@
       <c r="C2">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>403110200</v>
       </c>
@@ -1401,8 +1414,11 @@
       <c r="C3">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>403110300</v>
       </c>
@@ -1412,8 +1428,11 @@
       <c r="C4">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>403110400</v>
       </c>
@@ -1423,8 +1442,11 @@
       <c r="C5">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>403110500</v>
       </c>
@@ -1434,8 +1456,11 @@
       <c r="C6">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>403110600</v>
       </c>
@@ -1445,8 +1470,11 @@
       <c r="C7">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>403110700</v>
       </c>
@@ -1456,8 +1484,11 @@
       <c r="C8">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>403110800</v>
       </c>
@@ -1467,8 +1498,11 @@
       <c r="C9">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>403110900</v>
       </c>
@@ -1478,8 +1512,11 @@
       <c r="C10">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>403111000</v>
       </c>
@@ -1489,8 +1526,11 @@
       <c r="C11">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>403111100</v>
       </c>
@@ -1500,8 +1540,11 @@
       <c r="C12">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>403111200</v>
       </c>
@@ -1511,8 +1554,11 @@
       <c r="C13">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>403111300</v>
       </c>
@@ -1522,8 +1568,11 @@
       <c r="C14">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>403111400</v>
       </c>
@@ -1533,8 +1582,11 @@
       <c r="C15">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>403111500</v>
       </c>
@@ -1544,8 +1596,11 @@
       <c r="C16">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>403111600</v>
       </c>
@@ -1555,8 +1610,11 @@
       <c r="C17">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>403111700</v>
       </c>
@@ -1566,8 +1624,11 @@
       <c r="C18">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>403111800</v>
       </c>
@@ -1577,8 +1638,11 @@
       <c r="C19">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>403111900</v>
       </c>
@@ -1588,8 +1652,11 @@
       <c r="C20">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>403112000</v>
       </c>
@@ -1599,8 +1666,11 @@
       <c r="C21">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>403112100</v>
       </c>
@@ -1610,8 +1680,11 @@
       <c r="C22">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>403112200</v>
       </c>
@@ -1621,8 +1694,11 @@
       <c r="C23">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>403112300</v>
       </c>
@@ -1632,8 +1708,11 @@
       <c r="C24">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>403112400</v>
       </c>
@@ -1643,8 +1722,11 @@
       <c r="C25">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>403112500</v>
       </c>
@@ -1654,8 +1736,11 @@
       <c r="C26">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>403112600</v>
       </c>
@@ -1665,8 +1750,11 @@
       <c r="C27">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>403112700</v>
       </c>
@@ -1676,8 +1764,11 @@
       <c r="C28">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>403112800</v>
       </c>
@@ -1687,8 +1778,11 @@
       <c r="C29">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>403112900</v>
       </c>
@@ -1698,8 +1792,11 @@
       <c r="C30">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>403113000</v>
       </c>
@@ -1709,8 +1806,11 @@
       <c r="C31">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>403113100</v>
       </c>
@@ -1720,8 +1820,11 @@
       <c r="C32">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>403113200</v>
       </c>
@@ -1731,8 +1834,11 @@
       <c r="C33">
         <v>403110000</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>403113301</v>
       </c>
@@ -1742,8 +1848,11 @@
       <c r="C34">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>403113302</v>
       </c>
@@ -1753,8 +1862,11 @@
       <c r="C35">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>403113303</v>
       </c>
@@ -1764,8 +1876,11 @@
       <c r="C36">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>403113304</v>
       </c>
@@ -1775,8 +1890,11 @@
       <c r="C37">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>403113305</v>
       </c>
@@ -1786,8 +1904,11 @@
       <c r="C38">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>403113306</v>
       </c>
@@ -1797,8 +1918,11 @@
       <c r="C39">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>403113308</v>
       </c>
@@ -1808,8 +1932,11 @@
       <c r="C40">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>403113309</v>
       </c>
@@ -1819,8 +1946,11 @@
       <c r="C41">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>403113310</v>
       </c>
@@ -1830,8 +1960,11 @@
       <c r="C42">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>403113311</v>
       </c>
@@ -1841,8 +1974,11 @@
       <c r="C43">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>403113312</v>
       </c>
@@ -1852,8 +1988,11 @@
       <c r="C44">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>403113313</v>
       </c>
@@ -1863,8 +2002,11 @@
       <c r="C45">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>403113314</v>
       </c>
@@ -1874,8 +2016,11 @@
       <c r="C46">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>403113315</v>
       </c>
@@ -1885,8 +2030,11 @@
       <c r="C47">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>403113316</v>
       </c>
@@ -1896,8 +2044,11 @@
       <c r="C48">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>403113317</v>
       </c>
@@ -1907,8 +2058,11 @@
       <c r="C49">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>403113318</v>
       </c>
@@ -1918,8 +2072,11 @@
       <c r="C50">
         <v>403113300</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>403050201</v>
       </c>
@@ -1929,8 +2086,11 @@
       <c r="C51">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>403050202</v>
       </c>
@@ -1940,8 +2100,11 @@
       <c r="C52">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>403050203</v>
       </c>
@@ -1951,8 +2114,11 @@
       <c r="C53">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>403050204</v>
       </c>
@@ -1962,8 +2128,11 @@
       <c r="C54">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>403050205</v>
       </c>
@@ -1973,8 +2142,11 @@
       <c r="C55">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>403050206</v>
       </c>
@@ -1984,8 +2156,11 @@
       <c r="C56">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>403050207</v>
       </c>
@@ -1995,8 +2170,11 @@
       <c r="C57">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>403050208</v>
       </c>
@@ -2006,8 +2184,11 @@
       <c r="C58">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>403050209</v>
       </c>
@@ -2017,8 +2198,11 @@
       <c r="C59">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>403050210</v>
       </c>
@@ -2028,16 +2212,22 @@
       <c r="C60">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>403050211</v>
       </c>
       <c r="C61">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>403050212</v>
       </c>
@@ -2047,8 +2237,11 @@
       <c r="C62">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>403050213</v>
       </c>
@@ -2058,8 +2251,11 @@
       <c r="C63">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>403050214</v>
       </c>
@@ -2069,8 +2265,11 @@
       <c r="C64">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>403050215</v>
       </c>
@@ -2080,8 +2279,11 @@
       <c r="C65">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>403050216</v>
       </c>
@@ -2091,8 +2293,11 @@
       <c r="C66">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>403050217</v>
       </c>
@@ -2102,8 +2307,11 @@
       <c r="C67">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>403050218</v>
       </c>
@@ -2113,8 +2321,11 @@
       <c r="C68">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>403050219</v>
       </c>
@@ -2124,8 +2335,11 @@
       <c r="C69">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>403050220</v>
       </c>
@@ -2135,8 +2349,11 @@
       <c r="C70">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>403050221</v>
       </c>
@@ -2146,8 +2363,11 @@
       <c r="C71">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>403050222</v>
       </c>
@@ -2157,8 +2377,11 @@
       <c r="C72">
         <v>403050200</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>403070200</v>
       </c>
@@ -2168,8 +2391,11 @@
       <c r="C73">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>403070300</v>
       </c>
@@ -2179,8 +2405,11 @@
       <c r="C74">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>403070400</v>
       </c>
@@ -2190,8 +2419,11 @@
       <c r="C75">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>403070500</v>
       </c>
@@ -2201,8 +2433,11 @@
       <c r="C76">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>403070600</v>
       </c>
@@ -2212,8 +2447,11 @@
       <c r="C77">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>403070700</v>
       </c>
@@ -2223,8 +2461,11 @@
       <c r="C78">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>403070800</v>
       </c>
@@ -2234,8 +2475,11 @@
       <c r="C79">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>403070900</v>
       </c>
@@ -2245,8 +2489,11 @@
       <c r="C80">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>403071000</v>
       </c>
@@ -2256,8 +2503,11 @@
       <c r="C81">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>403071100</v>
       </c>
@@ -2267,8 +2517,11 @@
       <c r="C82">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>403071200</v>
       </c>
@@ -2278,8 +2531,11 @@
       <c r="C83">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>403071300</v>
       </c>
@@ -2289,8 +2545,11 @@
       <c r="C84">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>403071400</v>
       </c>
@@ -2300,8 +2559,11 @@
       <c r="C85">
         <v>403070000</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>403090300</v>
       </c>
@@ -2311,8 +2573,11 @@
       <c r="C86">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>403090400</v>
       </c>
@@ -2322,8 +2587,11 @@
       <c r="C87">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>403090500</v>
       </c>
@@ -2333,8 +2601,11 @@
       <c r="C88">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>403090600</v>
       </c>
@@ -2344,8 +2615,11 @@
       <c r="C89">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>403090700</v>
       </c>
@@ -2355,8 +2629,11 @@
       <c r="C90">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>403090800</v>
       </c>
@@ -2366,8 +2643,11 @@
       <c r="C91">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>403090900</v>
       </c>
@@ -2377,8 +2657,11 @@
       <c r="C92">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>403091000</v>
       </c>
@@ -2388,8 +2671,11 @@
       <c r="C93">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>403091100</v>
       </c>
@@ -2399,8 +2685,11 @@
       <c r="C94">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>403091200</v>
       </c>
@@ -2410,8 +2699,11 @@
       <c r="C95">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>403091300</v>
       </c>
@@ -2421,8 +2713,11 @@
       <c r="C96">
         <v>403090000</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>403060102</v>
       </c>
@@ -2432,8 +2727,11 @@
       <c r="C97">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>403060103</v>
       </c>
@@ -2443,8 +2741,11 @@
       <c r="C98">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>403060104</v>
       </c>
@@ -2454,8 +2755,11 @@
       <c r="C99">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>403060105</v>
       </c>
@@ -2465,8 +2769,11 @@
       <c r="C100">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>403060106</v>
       </c>
@@ -2476,8 +2783,11 @@
       <c r="C101">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>403060107</v>
       </c>
@@ -2487,8 +2797,11 @@
       <c r="C102">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>403060108</v>
       </c>
@@ -2498,8 +2811,11 @@
       <c r="C103">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>403060109</v>
       </c>
@@ -2509,8 +2825,11 @@
       <c r="C104">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>403060110</v>
       </c>
@@ -2520,8 +2839,11 @@
       <c r="C105">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>403060111</v>
       </c>
@@ -2531,8 +2853,11 @@
       <c r="C106">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>403060112</v>
       </c>
@@ -2542,8 +2867,11 @@
       <c r="C107">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>403060113</v>
       </c>
@@ -2553,8 +2881,11 @@
       <c r="C108">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>403060114</v>
       </c>
@@ -2564,8 +2895,11 @@
       <c r="C109">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>403060115</v>
       </c>
@@ -2575,8 +2909,11 @@
       <c r="C110">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>403060116</v>
       </c>
@@ -2586,8 +2923,11 @@
       <c r="C111">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>403060117</v>
       </c>
@@ -2597,8 +2937,11 @@
       <c r="C112">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>403060118</v>
       </c>
@@ -2608,8 +2951,11 @@
       <c r="C113">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>403060119</v>
       </c>
@@ -2619,8 +2965,11 @@
       <c r="C114">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>403060120</v>
       </c>
@@ -2630,8 +2979,11 @@
       <c r="C115">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>403060121</v>
       </c>
@@ -2641,8 +2993,11 @@
       <c r="C116">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>403060122</v>
       </c>
@@ -2652,8 +3007,11 @@
       <c r="C117">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>403060123</v>
       </c>
@@ -2663,8 +3021,11 @@
       <c r="C118">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>403060124</v>
       </c>
@@ -2674,8 +3035,11 @@
       <c r="C119">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>403060125</v>
       </c>
@@ -2685,8 +3049,11 @@
       <c r="C120">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>403060126</v>
       </c>
@@ -2696,8 +3063,11 @@
       <c r="C121">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>403060127</v>
       </c>
@@ -2707,8 +3077,11 @@
       <c r="C122">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>403060128</v>
       </c>
@@ -2718,8 +3091,11 @@
       <c r="C123">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>403060129</v>
       </c>
@@ -2729,8 +3105,11 @@
       <c r="C124">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>403060130</v>
       </c>
@@ -2740,8 +3119,11 @@
       <c r="C125">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>403060131</v>
       </c>
@@ -2751,8 +3133,11 @@
       <c r="C126">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>403060132</v>
       </c>
@@ -2762,8 +3147,11 @@
       <c r="C127">
         <v>403060000</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>403120100</v>
       </c>
@@ -2773,8 +3161,11 @@
       <c r="C128">
         <v>403120000</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>403120200</v>
       </c>
@@ -2784,8 +3175,11 @@
       <c r="C129">
         <v>403120000</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>403120400</v>
       </c>
@@ -2795,8 +3189,11 @@
       <c r="C130">
         <v>403120000</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>403120500</v>
       </c>
@@ -2806,8 +3203,11 @@
       <c r="C131">
         <v>403120000</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>403120600</v>
       </c>
@@ -2817,8 +3217,11 @@
       <c r="C132">
         <v>403120000</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>403120700</v>
       </c>
@@ -2828,8 +3231,11 @@
       <c r="C133">
         <v>403120000</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>403120800</v>
       </c>
@@ -2839,8 +3245,11 @@
       <c r="C134">
         <v>403120000</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>403120900</v>
       </c>
@@ -2850,8 +3259,11 @@
       <c r="C135">
         <v>403120000</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>403121000</v>
       </c>
@@ -2861,8 +3273,11 @@
       <c r="C136">
         <v>403120000</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>401020100</v>
       </c>
@@ -2872,8 +3287,11 @@
       <c r="C137">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>403030700</v>
       </c>
@@ -2883,8 +3301,11 @@
       <c r="C138">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>403030800</v>
       </c>
@@ -2894,8 +3315,11 @@
       <c r="C139">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>403030900</v>
       </c>
@@ -2905,8 +3329,11 @@
       <c r="C140">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>403031000</v>
       </c>
@@ -2916,8 +3343,11 @@
       <c r="C141">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>403031100</v>
       </c>
@@ -2927,8 +3357,11 @@
       <c r="C142">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>403031200</v>
       </c>
@@ -2938,8 +3371,11 @@
       <c r="C143">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>403030500</v>
       </c>
@@ -2949,8 +3385,11 @@
       <c r="C144">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>403030100</v>
       </c>
@@ -2960,8 +3399,11 @@
       <c r="C145">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>403030400</v>
       </c>
@@ -2971,8 +3413,11 @@
       <c r="C146">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>403030200</v>
       </c>
@@ -2982,8 +3427,11 @@
       <c r="C147">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>403031300</v>
       </c>
@@ -2993,8 +3441,11 @@
       <c r="C148">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>403031400</v>
       </c>
@@ -3004,8 +3455,11 @@
       <c r="C149">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>403031500</v>
       </c>
@@ -3015,8 +3469,11 @@
       <c r="C150">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>403031700</v>
       </c>
@@ -3026,160 +3483,220 @@
       <c r="C151">
         <v>403030000</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>405010100</v>
       </c>
       <c r="B152" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>405010200</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>405010300</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>405010400</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>405010800</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>405010900</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>405011000</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>405011100</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>405011500</v>
       </c>
       <c r="B160" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>405012600</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>405012700</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>405012900</v>
       </c>
       <c r="B163" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>405013000</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>405013400</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>405013500</v>
       </c>
       <c r="B166" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>405013700</v>
       </c>
       <c r="B167" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>405013900</v>
       </c>
       <c r="B168" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>405014000</v>
       </c>
       <c r="B169" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>405014700</v>
       </c>
       <c r="B170" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="1">
+        <v>9040000000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>403010201</v>
       </c>
@@ -3188,6 +3705,9 @@
       </c>
       <c r="C171">
         <v>403010200</v>
+      </c>
+      <c r="D171" s="1">
+        <v>9040000000</v>
       </c>
     </row>
   </sheetData>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Morges/Groupes.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Morges/Groupes.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Groupes2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1401,7 @@
         <v>403110000</v>
       </c>
       <c r="D2" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>403110000</v>
       </c>
       <c r="D3" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>403110000</v>
       </c>
       <c r="D4" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>403110000</v>
       </c>
       <c r="D5" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>403110000</v>
       </c>
       <c r="D6" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1471,7 +1471,7 @@
         <v>403110000</v>
       </c>
       <c r="D7" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>403110000</v>
       </c>
       <c r="D8" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>403110000</v>
       </c>
       <c r="D9" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,7 +1513,7 @@
         <v>403110000</v>
       </c>
       <c r="D10" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>403110000</v>
       </c>
       <c r="D11" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>403110000</v>
       </c>
       <c r="D12" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>403110000</v>
       </c>
       <c r="D13" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>403110000</v>
       </c>
       <c r="D14" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>403110000</v>
       </c>
       <c r="D15" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>403110000</v>
       </c>
       <c r="D16" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>403110000</v>
       </c>
       <c r="D17" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
         <v>403110000</v>
       </c>
       <c r="D18" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>403110000</v>
       </c>
       <c r="D19" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>403110000</v>
       </c>
       <c r="D20" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>403110000</v>
       </c>
       <c r="D21" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
         <v>403110000</v>
       </c>
       <c r="D22" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,7 +1695,7 @@
         <v>403110000</v>
       </c>
       <c r="D23" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
         <v>403110000</v>
       </c>
       <c r="D24" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
         <v>403110000</v>
       </c>
       <c r="D25" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
         <v>403110000</v>
       </c>
       <c r="D26" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>403110000</v>
       </c>
       <c r="D27" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>403110000</v>
       </c>
       <c r="D28" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>403110000</v>
       </c>
       <c r="D29" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
         <v>403110000</v>
       </c>
       <c r="D30" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>403110000</v>
       </c>
       <c r="D31" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
         <v>403110000</v>
       </c>
       <c r="D32" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>403110000</v>
       </c>
       <c r="D33" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
         <v>403113300</v>
       </c>
       <c r="D34" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
         <v>403113300</v>
       </c>
       <c r="D35" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>403113300</v>
       </c>
       <c r="D36" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>403113300</v>
       </c>
       <c r="D37" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
         <v>403113300</v>
       </c>
       <c r="D38" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>403113300</v>
       </c>
       <c r="D39" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>403113300</v>
       </c>
       <c r="D40" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
         <v>403113300</v>
       </c>
       <c r="D41" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
         <v>403113300</v>
       </c>
       <c r="D42" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>403113300</v>
       </c>
       <c r="D43" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
         <v>403113300</v>
       </c>
       <c r="D44" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
         <v>403113300</v>
       </c>
       <c r="D45" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>403113300</v>
       </c>
       <c r="D46" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
         <v>403113300</v>
       </c>
       <c r="D47" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,7 +2045,7 @@
         <v>403113300</v>
       </c>
       <c r="D48" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>403113300</v>
       </c>
       <c r="D49" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>403113300</v>
       </c>
       <c r="D50" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
         <v>403050200</v>
       </c>
       <c r="D51" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>403050200</v>
       </c>
       <c r="D52" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>403050200</v>
       </c>
       <c r="D53" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
         <v>403050200</v>
       </c>
       <c r="D54" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
         <v>403050200</v>
       </c>
       <c r="D55" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>403050200</v>
       </c>
       <c r="D56" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2171,7 +2171,7 @@
         <v>403050200</v>
       </c>
       <c r="D57" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2185,7 +2185,7 @@
         <v>403050200</v>
       </c>
       <c r="D58" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>403050200</v>
       </c>
       <c r="D59" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
         <v>403050200</v>
       </c>
       <c r="D60" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>403050200</v>
       </c>
       <c r="D61" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>403050200</v>
       </c>
       <c r="D62" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
         <v>403050200</v>
       </c>
       <c r="D63" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
         <v>403050200</v>
       </c>
       <c r="D64" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>403050200</v>
       </c>
       <c r="D65" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
         <v>403050200</v>
       </c>
       <c r="D66" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>403050200</v>
       </c>
       <c r="D67" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
         <v>403050200</v>
       </c>
       <c r="D68" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>403050200</v>
       </c>
       <c r="D69" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,7 +2350,7 @@
         <v>403050200</v>
       </c>
       <c r="D70" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>403050200</v>
       </c>
       <c r="D71" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,7 +2378,7 @@
         <v>403050200</v>
       </c>
       <c r="D72" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>403070000</v>
       </c>
       <c r="D73" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>403070000</v>
       </c>
       <c r="D74" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
         <v>403070000</v>
       </c>
       <c r="D75" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
         <v>403070000</v>
       </c>
       <c r="D76" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>403070000</v>
       </c>
       <c r="D77" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,7 @@
         <v>403070000</v>
       </c>
       <c r="D78" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2476,7 +2476,7 @@
         <v>403070000</v>
       </c>
       <c r="D79" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
         <v>403070000</v>
       </c>
       <c r="D80" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>403070000</v>
       </c>
       <c r="D81" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
         <v>403070000</v>
       </c>
       <c r="D82" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,7 +2532,7 @@
         <v>403070000</v>
       </c>
       <c r="D83" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>403070000</v>
       </c>
       <c r="D84" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>403070000</v>
       </c>
       <c r="D85" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,7 +2574,7 @@
         <v>403090000</v>
       </c>
       <c r="D86" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
         <v>403090000</v>
       </c>
       <c r="D87" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
         <v>403090000</v>
       </c>
       <c r="D88" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>403090000</v>
       </c>
       <c r="D89" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
         <v>403090000</v>
       </c>
       <c r="D90" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
         <v>403090000</v>
       </c>
       <c r="D91" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2658,7 +2658,7 @@
         <v>403090000</v>
       </c>
       <c r="D92" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>403090000</v>
       </c>
       <c r="D93" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,7 +2686,7 @@
         <v>403090000</v>
       </c>
       <c r="D94" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>403090000</v>
       </c>
       <c r="D95" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,7 +2714,7 @@
         <v>403090000</v>
       </c>
       <c r="D96" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>403060000</v>
       </c>
       <c r="D97" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
         <v>403060000</v>
       </c>
       <c r="D98" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>403060000</v>
       </c>
       <c r="D99" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v>403060000</v>
       </c>
       <c r="D100" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,7 +2784,7 @@
         <v>403060000</v>
       </c>
       <c r="D101" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>403060000</v>
       </c>
       <c r="D102" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>403060000</v>
       </c>
       <c r="D103" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,7 +2826,7 @@
         <v>403060000</v>
       </c>
       <c r="D104" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
         <v>403060000</v>
       </c>
       <c r="D105" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>403060000</v>
       </c>
       <c r="D106" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
         <v>403060000</v>
       </c>
       <c r="D107" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
         <v>403060000</v>
       </c>
       <c r="D108" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2896,7 +2896,7 @@
         <v>403060000</v>
       </c>
       <c r="D109" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2910,7 +2910,7 @@
         <v>403060000</v>
       </c>
       <c r="D110" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>403060000</v>
       </c>
       <c r="D111" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
         <v>403060000</v>
       </c>
       <c r="D112" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>403060000</v>
       </c>
       <c r="D113" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2966,7 +2966,7 @@
         <v>403060000</v>
       </c>
       <c r="D114" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
         <v>403060000</v>
       </c>
       <c r="D115" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
         <v>403060000</v>
       </c>
       <c r="D116" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>403060000</v>
       </c>
       <c r="D117" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3022,7 +3022,7 @@
         <v>403060000</v>
       </c>
       <c r="D118" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
         <v>403060000</v>
       </c>
       <c r="D119" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,7 +3050,7 @@
         <v>403060000</v>
       </c>
       <c r="D120" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>403060000</v>
       </c>
       <c r="D121" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3078,7 +3078,7 @@
         <v>403060000</v>
       </c>
       <c r="D122" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>403060000</v>
       </c>
       <c r="D123" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3106,7 +3106,7 @@
         <v>403060000</v>
       </c>
       <c r="D124" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
         <v>403060000</v>
       </c>
       <c r="D125" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3134,7 +3134,7 @@
         <v>403060000</v>
       </c>
       <c r="D126" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>403060000</v>
       </c>
       <c r="D127" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
         <v>403120000</v>
       </c>
       <c r="D128" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3176,7 +3176,7 @@
         <v>403120000</v>
       </c>
       <c r="D129" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3190,7 +3190,7 @@
         <v>403120000</v>
       </c>
       <c r="D130" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>403120000</v>
       </c>
       <c r="D131" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
         <v>403120000</v>
       </c>
       <c r="D132" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>403120000</v>
       </c>
       <c r="D133" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,7 +3246,7 @@
         <v>403120000</v>
       </c>
       <c r="D134" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>403120000</v>
       </c>
       <c r="D135" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>403120000</v>
       </c>
       <c r="D136" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3288,7 +3288,7 @@
         <v>403030000</v>
       </c>
       <c r="D137" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3302,7 +3302,7 @@
         <v>403030000</v>
       </c>
       <c r="D138" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>403030000</v>
       </c>
       <c r="D139" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
         <v>403030000</v>
       </c>
       <c r="D140" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3344,7 +3344,7 @@
         <v>403030000</v>
       </c>
       <c r="D141" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3358,7 +3358,7 @@
         <v>403030000</v>
       </c>
       <c r="D142" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3372,7 +3372,7 @@
         <v>403030000</v>
       </c>
       <c r="D143" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3386,7 +3386,7 @@
         <v>403030000</v>
       </c>
       <c r="D144" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3400,7 +3400,7 @@
         <v>403030000</v>
       </c>
       <c r="D145" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
         <v>403030000</v>
       </c>
       <c r="D146" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>403030000</v>
       </c>
       <c r="D147" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3442,7 +3442,7 @@
         <v>403030000</v>
       </c>
       <c r="D148" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3456,7 +3456,7 @@
         <v>403030000</v>
       </c>
       <c r="D149" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
         <v>403030000</v>
       </c>
       <c r="D150" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>403030000</v>
       </c>
       <c r="D151" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>152</v>
       </c>
       <c r="D152" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,7 +3506,7 @@
         <v>153</v>
       </c>
       <c r="D153" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3517,7 +3517,7 @@
         <v>154</v>
       </c>
       <c r="D154" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3528,7 +3528,7 @@
         <v>155</v>
       </c>
       <c r="D155" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,7 +3539,7 @@
         <v>156</v>
       </c>
       <c r="D156" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3550,7 +3550,7 @@
         <v>157</v>
       </c>
       <c r="D157" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
         <v>158</v>
       </c>
       <c r="D158" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>159</v>
       </c>
       <c r="D159" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3583,7 +3583,7 @@
         <v>160</v>
       </c>
       <c r="D160" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3594,7 +3594,7 @@
         <v>161</v>
       </c>
       <c r="D161" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
         <v>162</v>
       </c>
       <c r="D162" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3616,7 +3616,7 @@
         <v>163</v>
       </c>
       <c r="D163" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>164</v>
       </c>
       <c r="D164" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3638,7 +3638,7 @@
         <v>165</v>
       </c>
       <c r="D165" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3649,7 +3649,7 @@
         <v>166</v>
       </c>
       <c r="D166" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>167</v>
       </c>
       <c r="D167" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>168</v>
       </c>
       <c r="D168" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3682,7 +3682,7 @@
         <v>169</v>
       </c>
       <c r="D169" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3693,7 +3693,7 @@
         <v>170</v>
       </c>
       <c r="D170" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3707,7 +3707,7 @@
         <v>403010200</v>
       </c>
       <c r="D171" s="1">
-        <v>9040000000</v>
+        <v>2010000000</v>
       </c>
     </row>
   </sheetData>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Morges/Groupes.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Morges/Groupes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>IdxG</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>IdxPar</t>
+  </si>
+  <si>
+    <t>Groupes libres</t>
   </si>
 </sst>
 </file>
@@ -1364,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,10 +2722,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>403060102</v>
+        <v>403060100</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="C97">
         <v>403060000</v>
@@ -2733,13 +2736,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>403060103</v>
+        <v>403060102</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D98" s="1">
         <v>2010000000</v>
@@ -2747,13 +2750,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>403060104</v>
+        <v>403060103</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D99" s="1">
         <v>2010000000</v>
@@ -2761,13 +2764,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>403060105</v>
+        <v>403060104</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D100" s="1">
         <v>2010000000</v>
@@ -2775,13 +2778,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>403060106</v>
+        <v>403060105</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C101">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D101" s="1">
         <v>2010000000</v>
@@ -2789,13 +2792,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>403060107</v>
+        <v>403060106</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C102">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D102" s="1">
         <v>2010000000</v>
@@ -2803,13 +2806,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>403060108</v>
+        <v>403060107</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C103">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D103" s="1">
         <v>2010000000</v>
@@ -2817,13 +2820,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>403060109</v>
+        <v>403060108</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D104" s="1">
         <v>2010000000</v>
@@ -2831,13 +2834,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>403060110</v>
+        <v>403060109</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D105" s="1">
         <v>2010000000</v>
@@ -2845,13 +2848,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>403060111</v>
+        <v>403060110</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D106" s="1">
         <v>2010000000</v>
@@ -2859,13 +2862,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>403060112</v>
+        <v>403060111</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C107">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D107" s="1">
         <v>2010000000</v>
@@ -2873,13 +2876,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>403060113</v>
+        <v>403060112</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C108">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D108" s="1">
         <v>2010000000</v>
@@ -2887,13 +2890,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>403060114</v>
+        <v>403060113</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D109" s="1">
         <v>2010000000</v>
@@ -2901,13 +2904,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>403060115</v>
+        <v>403060114</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D110" s="1">
         <v>2010000000</v>
@@ -2915,13 +2918,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>403060116</v>
+        <v>403060115</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D111" s="1">
         <v>2010000000</v>
@@ -2929,13 +2932,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>403060117</v>
+        <v>403060116</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D112" s="1">
         <v>2010000000</v>
@@ -2943,13 +2946,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>403060118</v>
+        <v>403060117</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D113" s="1">
         <v>2010000000</v>
@@ -2957,13 +2960,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>403060119</v>
+        <v>403060118</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D114" s="1">
         <v>2010000000</v>
@@ -2971,13 +2974,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>403060120</v>
+        <v>403060119</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D115" s="1">
         <v>2010000000</v>
@@ -2985,13 +2988,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>403060121</v>
+        <v>403060120</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D116" s="1">
         <v>2010000000</v>
@@ -2999,13 +3002,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>403060122</v>
+        <v>403060121</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D117" s="1">
         <v>2010000000</v>
@@ -3013,13 +3016,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>403060123</v>
+        <v>403060122</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D118" s="1">
         <v>2010000000</v>
@@ -3027,13 +3030,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>403060124</v>
+        <v>403060123</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D119" s="1">
         <v>2010000000</v>
@@ -3041,13 +3044,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>403060125</v>
+        <v>403060124</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D120" s="1">
         <v>2010000000</v>
@@ -3055,13 +3058,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>403060126</v>
+        <v>403060125</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D121" s="1">
         <v>2010000000</v>
@@ -3069,13 +3072,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>403060127</v>
+        <v>403060126</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D122" s="1">
         <v>2010000000</v>
@@ -3083,13 +3086,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>403060128</v>
+        <v>403060127</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D123" s="1">
         <v>2010000000</v>
@@ -3097,13 +3100,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>403060129</v>
+        <v>403060128</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D124" s="1">
         <v>2010000000</v>
@@ -3111,13 +3114,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>403060130</v>
+        <v>403060129</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D125" s="1">
         <v>2010000000</v>
@@ -3125,13 +3128,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>403060131</v>
+        <v>403060130</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D126" s="1">
         <v>2010000000</v>
@@ -3139,13 +3142,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>403060132</v>
+        <v>403060131</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127">
-        <v>403060000</v>
+        <v>403060100</v>
       </c>
       <c r="D127" s="1">
         <v>2010000000</v>
@@ -3153,13 +3156,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>403120100</v>
+        <v>403060132</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128">
-        <v>403120000</v>
+        <v>403060100</v>
       </c>
       <c r="D128" s="1">
         <v>2010000000</v>
@@ -3167,10 +3170,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>403120200</v>
+        <v>403120100</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129">
         <v>403120000</v>
@@ -3181,10 +3184,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>403120400</v>
+        <v>403120200</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130">
         <v>403120000</v>
@@ -3195,10 +3198,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>403120500</v>
+        <v>403120400</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131">
         <v>403120000</v>
@@ -3209,10 +3212,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>403120600</v>
+        <v>403120500</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132">
         <v>403120000</v>
@@ -3223,10 +3226,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>403120700</v>
+        <v>403120600</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133">
         <v>403120000</v>
@@ -3237,10 +3240,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>403120800</v>
+        <v>403120700</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134">
         <v>403120000</v>
@@ -3251,10 +3254,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>403120900</v>
+        <v>403120800</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135">
         <v>403120000</v>
@@ -3265,10 +3268,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>403121000</v>
+        <v>403120900</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136">
         <v>403120000</v>
@@ -3279,13 +3282,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>401020100</v>
+        <v>403121000</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C137">
-        <v>403030000</v>
+        <v>403120000</v>
       </c>
       <c r="D137" s="1">
         <v>2010000000</v>
@@ -3293,10 +3296,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>403030700</v>
+        <v>401020100</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138">
         <v>403030000</v>
@@ -3307,10 +3310,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>403030800</v>
+        <v>403030700</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C139">
         <v>403030000</v>
@@ -3321,10 +3324,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>403030900</v>
+        <v>403030800</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140">
         <v>403030000</v>
@@ -3335,10 +3338,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>403031000</v>
+        <v>403030900</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141">
         <v>403030000</v>
@@ -3349,10 +3352,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>403031100</v>
+        <v>403031000</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C142">
         <v>403030000</v>
@@ -3363,10 +3366,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>403031200</v>
+        <v>403031100</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C143">
         <v>403030000</v>
@@ -3377,10 +3380,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>403030500</v>
+        <v>403031200</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144">
         <v>403030000</v>
@@ -3391,10 +3394,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>403030100</v>
+        <v>403030500</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145">
         <v>403030000</v>
@@ -3405,10 +3408,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>403030400</v>
+        <v>403030100</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146">
         <v>403030000</v>
@@ -3419,10 +3422,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>403030200</v>
+        <v>403030400</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147">
         <v>403030000</v>
@@ -3433,10 +3436,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>403031300</v>
+        <v>403030200</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148">
         <v>403030000</v>
@@ -3447,10 +3450,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>403031400</v>
+        <v>403031300</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149">
         <v>403030000</v>
@@ -3461,10 +3464,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>403031500</v>
+        <v>403031400</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150">
         <v>403030000</v>
@@ -3475,10 +3478,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>403031700</v>
+        <v>403031500</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151">
         <v>403030000</v>
@@ -3489,10 +3492,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>405010100</v>
+        <v>403031700</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="C152">
+        <v>403030000</v>
       </c>
       <c r="D152" s="1">
         <v>2010000000</v>
@@ -3500,10 +3506,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>405010200</v>
+        <v>405010100</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D153" s="1">
         <v>2010000000</v>
@@ -3511,10 +3517,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>405010300</v>
+        <v>405010200</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D154" s="1">
         <v>2010000000</v>
@@ -3522,10 +3528,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>405010400</v>
+        <v>405010300</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D155" s="1">
         <v>2010000000</v>
@@ -3533,10 +3539,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>405010800</v>
+        <v>405010400</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D156" s="1">
         <v>2010000000</v>
@@ -3544,10 +3550,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>405010900</v>
+        <v>405010800</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D157" s="1">
         <v>2010000000</v>
@@ -3555,10 +3561,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>405011000</v>
+        <v>405010900</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D158" s="1">
         <v>2010000000</v>
@@ -3566,10 +3572,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>405011100</v>
+        <v>405011000</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D159" s="1">
         <v>2010000000</v>
@@ -3577,10 +3583,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>405011500</v>
+        <v>405011100</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D160" s="1">
         <v>2010000000</v>
@@ -3588,10 +3594,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>405012600</v>
+        <v>405011500</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D161" s="1">
         <v>2010000000</v>
@@ -3599,10 +3605,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>405012700</v>
+        <v>405012600</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D162" s="1">
         <v>2010000000</v>
@@ -3610,10 +3616,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>405012900</v>
+        <v>405012700</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D163" s="1">
         <v>2010000000</v>
@@ -3621,10 +3627,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>405013000</v>
+        <v>405012900</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D164" s="1">
         <v>2010000000</v>
@@ -3632,10 +3638,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>405013400</v>
+        <v>405013000</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D165" s="1">
         <v>2010000000</v>
@@ -3643,10 +3649,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>405013500</v>
+        <v>405013400</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D166" s="1">
         <v>2010000000</v>
@@ -3654,10 +3660,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>405013700</v>
+        <v>405013500</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D167" s="1">
         <v>2010000000</v>
@@ -3665,10 +3671,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>405013900</v>
+        <v>405013700</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D168" s="1">
         <v>2010000000</v>
@@ -3676,10 +3682,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>405014000</v>
+        <v>405013900</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D169" s="1">
         <v>2010000000</v>
@@ -3687,10 +3693,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>405014700</v>
+        <v>405014000</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D170" s="1">
         <v>2010000000</v>
@@ -3698,15 +3704,26 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
+        <v>405014700</v>
+      </c>
+      <c r="B171" t="s">
+        <v>170</v>
+      </c>
+      <c r="D171" s="1">
+        <v>2010000000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>403010201</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>171</v>
       </c>
-      <c r="C171">
+      <c r="C172">
         <v>403010200</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D172" s="1">
         <v>2010000000</v>
       </c>
     </row>
